--- a/biology/Zoologie/Dermosmiliidae/Dermosmiliidae.xlsx
+++ b/biology/Zoologie/Dermosmiliidae/Dermosmiliidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Dermosmiliidae sont une famille fossile de coraux durs de l'ordre des Scleractinia ayant une vaste répartition géographique. Ils sont connus du Jurassique au Miocène.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (24 février 2024)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (24 février 2024) :
 † Alakiria Cuif, 1976
 † Calamophylliopsis Alloiteau, 1952
 † Dermosmilia Koby, 1884
@@ -549,10 +563,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Dermosmiliidae Koby (d), 1889[1].
-Dermosmiliidae a pour synonyme[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Dermosmiliidae Koby (d), 1889.
+Dermosmiliidae a pour synonyme :
 Ethmotidae Gregory, 1900</t>
         </is>
       </c>
@@ -581,7 +597,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>F. Koby, « Monographie des Polypiers jurassiques de la Suisse. 7e partie », Mémoires de la Société Paléontologique Suisse, Suisse, vol. 14,‎ 1887, p. 353-400 (ISSN 0080-7389).</t>
         </is>
